--- a/public/data/trade_2071_082.xlsx
+++ b/public/data/trade_2071_082.xlsx
@@ -875,37 +875,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1644797586 </t>
+          <t xml:space="preserve"> 1804122731 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 247570213 </t>
+          <t xml:space="preserve"> 277030202 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1397227373 </t>
+          <t xml:space="preserve"> 1527092530 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1892367799 </t>
+          <t xml:space="preserve"> 2081152933 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13.08</t>
+          <t>13.31</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>86.92</t>
+          <t>86.69</t>
         </is>
       </c>
     </row>
